--- a/ISO 965-2-98 Coarse.xlsx
+++ b/ISO 965-2-98 Coarse.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\My Work\Standards database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Streamlite\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -619,16 +619,16 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">

--- a/ISO 965-2-98 Coarse.xlsx
+++ b/ISO 965-2-98 Coarse.xlsx
@@ -46,30 +46,12 @@
     <t>M1</t>
   </si>
   <si>
-    <t>M1,2</t>
-  </si>
-  <si>
-    <t>M1,4</t>
-  </si>
-  <si>
-    <t>M1,6</t>
-  </si>
-  <si>
-    <t>M1,8</t>
-  </si>
-  <si>
     <t>M2</t>
   </si>
   <si>
-    <t>M2,5</t>
-  </si>
-  <si>
     <t>M3</t>
   </si>
   <si>
-    <t>M3,5</t>
-  </si>
-  <si>
     <t>M4</t>
   </si>
   <si>
@@ -143,6 +125,24 @@
   </si>
   <si>
     <t>Root radius (Min)</t>
+  </si>
+  <si>
+    <t>M1.2</t>
+  </si>
+  <si>
+    <t>M1.4</t>
+  </si>
+  <si>
+    <t>M1.6</t>
+  </si>
+  <si>
+    <t>M1.8</t>
+  </si>
+  <si>
+    <t>M2.5</t>
+  </si>
+  <si>
+    <t>M3.5</t>
   </si>
 </sst>
 </file>
@@ -619,7 +619,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,7 +648,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -673,7 +673,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B3" s="5">
         <v>1.2</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B4" s="7">
         <v>1.4</v>
@@ -713,7 +713,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B5" s="4">
         <v>1.581</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B6" s="5">
         <v>1.7809999999999999</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7" s="7">
         <v>1.9810000000000001</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B8" s="4">
         <v>2.48</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B9" s="5">
         <v>2.98</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B10" s="7">
         <v>3.4790000000000001</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B11" s="4">
         <v>3.9780000000000002</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B12" s="5">
         <v>4.976</v>
@@ -873,7 +873,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B13" s="7">
         <v>5.9740000000000002</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B14" s="4">
         <v>6.9740000000000002</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B15" s="5">
         <v>7.9720000000000004</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B16" s="7">
         <v>9.968</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B17" s="4">
         <v>11.965999999999999</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B18" s="5">
         <v>13.962</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B19" s="7">
         <v>15.962</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B20" s="4">
         <v>17.957999999999998</v>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B21" s="5">
         <v>19.957999999999998</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B22" s="7">
         <v>21.957999999999998</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B23" s="4">
         <v>23.952000000000002</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B24" s="5">
         <v>26.952000000000002</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B25" s="7">
         <v>29.946999999999999</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B26" s="4">
         <v>32.947000000000003</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B27" s="5">
         <v>35.94</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B28" s="7">
         <v>38.94</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B29" s="11">
         <v>44.936999999999998</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B30" s="7">
         <v>47.929000000000002</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B31" s="4">
         <v>51.929000000000002</v>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B32" s="5">
         <v>55.924999999999997</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B33" s="7">
         <v>59.924999999999997</v>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B34" s="13">
         <v>63.92</v>
